--- a/BarcodeDataAndSuppFig5-6-7/runcl141P3_CountTable.xlsx
+++ b/BarcodeDataAndSuppFig5-6-7/runcl141P3_CountTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/PromisePegasus/SPAR_SEQ/UMItest/runclU141PEP3/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/PromisePegasus/SPAR_SEQ/revisions_Sep2024/bc_processing_and_supfig567/bc1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2874FD-C913-8847-9688-96E35F81738B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C50A38-BFC8-D345-A5A6-68E03BB724ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6820" yWindow="1280" windowWidth="31800" windowHeight="24180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="1103">
   <si>
     <t>sample</t>
   </si>
@@ -37,12 +37,6 @@
     <t>Spoly</t>
   </si>
   <si>
-    <t>Swf_26</t>
-  </si>
-  <si>
-    <t>Swf_26_Omicron</t>
-  </si>
-  <si>
     <t>gACTB</t>
   </si>
   <si>
@@ -3331,24 +3325,20 @@
     <t>well</t>
   </si>
   <si>
-    <t>fail</t>
+    <t>Srbd</t>
+  </si>
+  <si>
+    <t>Srbd_v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3374,34 +3364,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3710,10 +3679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R364"/>
+  <dimension ref="A1:N364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3723,12 +3692,12 @@
     <col min="15" max="17" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3743,39 +3712,36 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3811,18 +3777,15 @@
         <v>186307</v>
       </c>
       <c r="N2" t="s">
-        <v>206</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3858,18 +3821,15 @@
         <v>322535</v>
       </c>
       <c r="N3" t="s">
-        <v>710</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3905,18 +3865,15 @@
         <v>143734</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B5" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3952,18 +3909,15 @@
         <v>217592</v>
       </c>
       <c r="N5" t="s">
-        <v>612</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B6" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3999,18 +3953,15 @@
         <v>183451</v>
       </c>
       <c r="N6" t="s">
-        <v>524</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B7" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4046,18 +3997,15 @@
         <v>180616</v>
       </c>
       <c r="N7" t="s">
-        <v>348</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B8" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -4093,18 +4041,15 @@
         <v>183204</v>
       </c>
       <c r="N8" t="s">
-        <v>536</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B9" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C9">
         <v>21</v>
@@ -4140,18 +4085,15 @@
         <v>280167</v>
       </c>
       <c r="N9" t="s">
-        <v>362</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B10" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4187,18 +4129,15 @@
         <v>159722</v>
       </c>
       <c r="N10" t="s">
-        <v>424</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B11" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4234,18 +4173,15 @@
         <v>8725</v>
       </c>
       <c r="N11" t="s">
-        <v>318</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4281,18 +4217,15 @@
         <v>144814</v>
       </c>
       <c r="N12" t="s">
-        <v>230</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B13" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4328,18 +4261,15 @@
         <v>189725</v>
       </c>
       <c r="N13" t="s">
-        <v>316</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B14" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4375,18 +4305,15 @@
         <v>126558</v>
       </c>
       <c r="N14" t="s">
-        <v>456</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B15" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -4422,18 +4349,15 @@
         <v>189989</v>
       </c>
       <c r="N15" t="s">
-        <v>336</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B16" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4469,18 +4393,15 @@
         <v>155398</v>
       </c>
       <c r="N16" t="s">
-        <v>464</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4516,18 +4437,15 @@
         <v>175666</v>
       </c>
       <c r="N17" t="s">
-        <v>540</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B18" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4563,18 +4481,15 @@
         <v>225630</v>
       </c>
       <c r="N18" t="s">
-        <v>296</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4610,18 +4525,15 @@
         <v>240208</v>
       </c>
       <c r="N19" t="s">
-        <v>128</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B20" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4657,18 +4569,15 @@
         <v>108973</v>
       </c>
       <c r="N20" t="s">
-        <v>292</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4704,18 +4613,15 @@
         <v>152462</v>
       </c>
       <c r="N21" t="s">
-        <v>130</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B22" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C22">
         <v>57</v>
@@ -4751,18 +4657,15 @@
         <v>106111</v>
       </c>
       <c r="N22" t="s">
-        <v>282</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4798,18 +4701,15 @@
         <v>213394</v>
       </c>
       <c r="N23" t="s">
-        <v>132</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B24" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -4845,18 +4745,15 @@
         <v>152185</v>
       </c>
       <c r="N24" t="s">
-        <v>402</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -4892,18 +4789,15 @@
         <v>111348</v>
       </c>
       <c r="N25" t="s">
-        <v>170</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B26" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4939,18 +4833,15 @@
         <v>118661</v>
       </c>
       <c r="N26" t="s">
-        <v>342</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -4986,18 +4877,15 @@
         <v>164519</v>
       </c>
       <c r="N27" t="s">
-        <v>168</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B28" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -5033,18 +4921,15 @@
         <v>128067</v>
       </c>
       <c r="N28" t="s">
-        <v>412</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B29" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -5080,18 +4965,15 @@
         <v>109572</v>
       </c>
       <c r="N29" t="s">
-        <v>224</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -5127,18 +5009,15 @@
         <v>152626</v>
       </c>
       <c r="N30" t="s">
-        <v>294</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B31" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -5174,18 +5053,15 @@
         <v>196954</v>
       </c>
       <c r="N31" t="s">
-        <v>652</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -5221,18 +5097,15 @@
         <v>177306</v>
       </c>
       <c r="N32" t="s">
-        <v>288</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B33" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -5268,18 +5141,15 @@
         <v>176981</v>
       </c>
       <c r="N33" t="s">
-        <v>654</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B34" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -5315,18 +5185,15 @@
         <v>245664</v>
       </c>
       <c r="N34" t="s">
-        <v>432</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B35" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -5362,18 +5229,15 @@
         <v>265234</v>
       </c>
       <c r="N35" t="s">
-        <v>414</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -5409,18 +5273,15 @@
         <v>274651</v>
       </c>
       <c r="N36" t="s">
-        <v>44</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B37" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C37">
         <v>11</v>
@@ -5456,18 +5317,15 @@
         <v>260884</v>
       </c>
       <c r="N37" t="s">
-        <v>408</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B38" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5503,18 +5361,15 @@
         <v>146131</v>
       </c>
       <c r="N38" t="s">
-        <v>530</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B39" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -5550,18 +5405,15 @@
         <v>174601</v>
       </c>
       <c r="N39" t="s">
-        <v>406</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B40" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -5597,18 +5449,15 @@
         <v>159782</v>
       </c>
       <c r="N40" t="s">
-        <v>582</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C41">
         <v>200</v>
@@ -5644,18 +5493,15 @@
         <v>239637</v>
       </c>
       <c r="N41" t="s">
-        <v>340</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B42" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5691,18 +5537,15 @@
         <v>145815</v>
       </c>
       <c r="N42" t="s">
-        <v>228</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B43" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5738,18 +5581,15 @@
         <v>115428</v>
       </c>
       <c r="N43" t="s">
-        <v>472</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B44" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5785,18 +5625,15 @@
         <v>165101</v>
       </c>
       <c r="N44" t="s">
-        <v>226</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B45" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -5832,18 +5669,15 @@
         <v>114590</v>
       </c>
       <c r="N45" t="s">
-        <v>286</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B46" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -5879,18 +5713,15 @@
         <v>204981</v>
       </c>
       <c r="N46" t="s">
-        <v>236</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B47" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -5926,18 +5757,15 @@
         <v>204145</v>
       </c>
       <c r="N47" t="s">
-        <v>390</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B48" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -5973,18 +5801,15 @@
         <v>147752</v>
       </c>
       <c r="N48" t="s">
-        <v>562</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -6020,18 +5845,15 @@
         <v>197912</v>
       </c>
       <c r="N49" t="s">
-        <v>370</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B50" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -6067,18 +5889,15 @@
         <v>167316</v>
       </c>
       <c r="N50" t="s">
-        <v>354</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B51" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -6114,18 +5933,15 @@
         <v>268093</v>
       </c>
       <c r="N51" t="s">
-        <v>642</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B52" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -6161,18 +5977,15 @@
         <v>105427</v>
       </c>
       <c r="N52" t="s">
-        <v>350</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B53" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -6208,18 +6021,15 @@
         <v>164935</v>
       </c>
       <c r="N53" t="s">
-        <v>644</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B54" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -6255,18 +6065,15 @@
         <v>93396</v>
       </c>
       <c r="N54" t="s">
-        <v>394</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B55" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -6302,18 +6109,15 @@
         <v>101012</v>
       </c>
       <c r="N55" t="s">
-        <v>154</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B56" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -6349,18 +6153,15 @@
         <v>206669</v>
       </c>
       <c r="N56" t="s">
-        <v>252</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B57" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -6396,18 +6197,15 @@
         <v>204254</v>
       </c>
       <c r="N57" t="s">
-        <v>178</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B58" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -6443,18 +6241,15 @@
         <v>100889</v>
       </c>
       <c r="N58" t="s">
-        <v>284</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B59" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -6490,18 +6285,15 @@
         <v>7027</v>
       </c>
       <c r="N59" t="s">
-        <v>180</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B60" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -6537,18 +6329,15 @@
         <v>193092</v>
       </c>
       <c r="N60" t="s">
-        <v>552</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B61" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -6584,18 +6373,15 @@
         <v>208905</v>
       </c>
       <c r="N61" t="s">
-        <v>186</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B62" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -6631,18 +6417,15 @@
         <v>95005</v>
       </c>
       <c r="N62" t="s">
-        <v>474</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -6678,18 +6461,15 @@
         <v>140801</v>
       </c>
       <c r="N63" t="s">
-        <v>136</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B64" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -6725,18 +6505,15 @@
         <v>163801</v>
       </c>
       <c r="N64" t="s">
-        <v>300</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B65" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -6772,18 +6549,15 @@
         <v>188988</v>
       </c>
       <c r="N65" t="s">
-        <v>630</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -6819,18 +6593,15 @@
         <v>245744</v>
       </c>
       <c r="N66" t="s">
-        <v>38</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B67" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6866,18 +6637,15 @@
         <v>165505</v>
       </c>
       <c r="N67" t="s">
-        <v>372</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B68" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -6913,18 +6681,15 @@
         <v>83632</v>
       </c>
       <c r="N68" t="s">
-        <v>380</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B69" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -6960,18 +6725,15 @@
         <v>97805</v>
       </c>
       <c r="N69" t="s">
-        <v>260</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B70" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -7007,18 +6769,15 @@
         <v>121631</v>
       </c>
       <c r="N70" t="s">
-        <v>484</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B71" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -7054,18 +6813,15 @@
         <v>169556</v>
       </c>
       <c r="N71" t="s">
-        <v>570</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -7101,18 +6857,15 @@
         <v>106943</v>
       </c>
       <c r="N72" t="s">
-        <v>40</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B73" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C73">
         <v>16</v>
@@ -7148,18 +6901,15 @@
         <v>122818</v>
       </c>
       <c r="N73" t="s">
-        <v>298</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -7195,18 +6945,15 @@
         <v>84520</v>
       </c>
       <c r="N74" t="s">
-        <v>42</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B75" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -7242,18 +6989,15 @@
         <v>76998</v>
       </c>
       <c r="N75" t="s">
-        <v>306</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B76" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -7289,18 +7033,15 @@
         <v>158355</v>
       </c>
       <c r="N76" t="s">
-        <v>426</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B77" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -7336,18 +7077,15 @@
         <v>207463</v>
       </c>
       <c r="N77" t="s">
-        <v>358</v>
-      </c>
-      <c r="R77" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B78" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -7383,18 +7121,15 @@
         <v>154124</v>
       </c>
       <c r="N78" t="s">
-        <v>442</v>
-      </c>
-      <c r="R78" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B79" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C79">
         <v>22</v>
@@ -7430,18 +7165,15 @@
         <v>359751</v>
       </c>
       <c r="N79" t="s">
-        <v>262</v>
-      </c>
-      <c r="R79" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B80" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -7477,18 +7209,15 @@
         <v>145489</v>
       </c>
       <c r="N80" t="s">
-        <v>444</v>
-      </c>
-      <c r="R80" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B81" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7524,18 +7253,15 @@
         <v>164374</v>
       </c>
       <c r="N81" t="s">
-        <v>400</v>
-      </c>
-      <c r="R81" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B82" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7571,18 +7297,15 @@
         <v>170205</v>
       </c>
       <c r="N82" t="s">
-        <v>480</v>
-      </c>
-      <c r="R82" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B83" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7618,18 +7341,15 @@
         <v>202619</v>
       </c>
       <c r="N83" t="s">
-        <v>646</v>
-      </c>
-      <c r="R83" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B84" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C84">
         <v>6</v>
@@ -7665,18 +7385,15 @@
         <v>160771</v>
       </c>
       <c r="N84" t="s">
-        <v>404</v>
-      </c>
-      <c r="R84" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B85" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7712,18 +7429,15 @@
         <v>194297</v>
       </c>
       <c r="N85" t="s">
-        <v>156</v>
-      </c>
-      <c r="R85" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B86" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -7759,18 +7473,15 @@
         <v>150010</v>
       </c>
       <c r="N86" t="s">
-        <v>250</v>
-      </c>
-      <c r="R86" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B87" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7806,18 +7517,15 @@
         <v>154931</v>
       </c>
       <c r="N87" t="s">
-        <v>184</v>
-      </c>
-      <c r="R87" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B88" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C88">
         <v>14</v>
@@ -7853,18 +7561,15 @@
         <v>149039</v>
       </c>
       <c r="N88" t="s">
-        <v>302</v>
-      </c>
-      <c r="R88" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B89" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7900,18 +7605,15 @@
         <v>212711</v>
       </c>
       <c r="N89" t="s">
-        <v>616</v>
-      </c>
-      <c r="R89" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B90" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -7947,18 +7649,15 @@
         <v>78833</v>
       </c>
       <c r="N90" t="s">
-        <v>478</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B91" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -7994,18 +7693,15 @@
         <v>204238</v>
       </c>
       <c r="N91" t="s">
-        <v>618</v>
-      </c>
-      <c r="R91" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B92" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C92">
         <v>7</v>
@@ -8041,18 +7737,15 @@
         <v>259750</v>
       </c>
       <c r="N92" t="s">
-        <v>290</v>
-      </c>
-      <c r="R92" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B93" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -8088,18 +7781,15 @@
         <v>241553</v>
       </c>
       <c r="N93" t="s">
-        <v>628</v>
-      </c>
-      <c r="R93" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B94" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C94">
         <v>39</v>
@@ -8135,18 +7825,15 @@
         <v>143549</v>
       </c>
       <c r="N94" t="s">
-        <v>396</v>
-      </c>
-      <c r="R94" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B95" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -8182,18 +7869,15 @@
         <v>173945</v>
       </c>
       <c r="N95" t="s">
-        <v>150</v>
-      </c>
-      <c r="R95" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B96" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -8229,18 +7913,15 @@
         <v>145123</v>
       </c>
       <c r="N96" t="s">
-        <v>386</v>
-      </c>
-      <c r="R96" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B97" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -8276,18 +7957,15 @@
         <v>213754</v>
       </c>
       <c r="N97" t="s">
-        <v>148</v>
-      </c>
-      <c r="R97" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B98" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -8323,18 +8001,15 @@
         <v>199205</v>
       </c>
       <c r="N98" t="s">
-        <v>446</v>
-      </c>
-      <c r="R98" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B99" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -8370,18 +8045,15 @@
         <v>268076</v>
       </c>
       <c r="N99" t="s">
-        <v>310</v>
-      </c>
-      <c r="R99" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B100" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -8417,18 +8089,15 @@
         <v>230215</v>
       </c>
       <c r="N100" t="s">
-        <v>526</v>
-      </c>
-      <c r="R100" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B101" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C101">
         <v>20</v>
@@ -8464,18 +8133,15 @@
         <v>184673</v>
       </c>
       <c r="N101" t="s">
-        <v>308</v>
-      </c>
-      <c r="R101" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B102" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -8511,18 +8177,15 @@
         <v>143402</v>
       </c>
       <c r="N102" t="s">
-        <v>534</v>
-      </c>
-      <c r="R102" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B103" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -8558,18 +8221,15 @@
         <v>155023</v>
       </c>
       <c r="N103" t="s">
-        <v>338</v>
-      </c>
-      <c r="R103" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B104" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -8605,18 +8265,15 @@
         <v>178497</v>
       </c>
       <c r="N104" t="s">
-        <v>232</v>
-      </c>
-      <c r="R104" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B105" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C105">
         <v>170</v>
@@ -8652,18 +8309,15 @@
         <v>275314</v>
       </c>
       <c r="N105" t="s">
-        <v>332</v>
-      </c>
-      <c r="R105" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B106" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -8699,18 +8353,15 @@
         <v>227057</v>
       </c>
       <c r="N106" t="s">
-        <v>422</v>
-      </c>
-      <c r="R106" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B107" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C107">
         <v>37</v>
@@ -8746,18 +8397,15 @@
         <v>80810</v>
       </c>
       <c r="N107" t="s">
-        <v>268</v>
-      </c>
-      <c r="R107" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B108" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -8793,18 +8441,15 @@
         <v>223827</v>
       </c>
       <c r="N108" t="s">
-        <v>460</v>
-      </c>
-      <c r="R108" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B109" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C109">
         <v>136</v>
@@ -8840,18 +8485,15 @@
         <v>286079</v>
       </c>
       <c r="N109" t="s">
-        <v>314</v>
-      </c>
-      <c r="R109" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B110" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -8887,18 +8529,15 @@
         <v>220737</v>
       </c>
       <c r="N110" t="s">
-        <v>454</v>
-      </c>
-      <c r="R110" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B111" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -8934,18 +8573,15 @@
         <v>198352</v>
       </c>
       <c r="N111" t="s">
-        <v>270</v>
-      </c>
-      <c r="R111" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B112" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -8981,18 +8617,15 @@
         <v>200423</v>
       </c>
       <c r="N112" t="s">
-        <v>418</v>
-      </c>
-      <c r="R112" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B113" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -9028,18 +8661,15 @@
         <v>293151</v>
       </c>
       <c r="N113" t="s">
-        <v>450</v>
-      </c>
-      <c r="R113" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B114" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -9075,18 +8705,15 @@
         <v>172159</v>
       </c>
       <c r="N114" t="s">
-        <v>468</v>
-      </c>
-      <c r="R114" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B115" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -9122,18 +8749,15 @@
         <v>245756</v>
       </c>
       <c r="N115" t="s">
-        <v>220</v>
-      </c>
-      <c r="R115" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B116" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C116">
         <v>4</v>
@@ -9169,18 +8793,15 @@
         <v>113743</v>
       </c>
       <c r="N116" t="s">
-        <v>360</v>
-      </c>
-      <c r="R116" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B117" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -9216,18 +8837,15 @@
         <v>183545</v>
       </c>
       <c r="N117" t="s">
-        <v>166</v>
-      </c>
-      <c r="R117" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B118" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -9263,18 +8881,15 @@
         <v>155466</v>
       </c>
       <c r="N118" t="s">
-        <v>352</v>
-      </c>
-      <c r="R118" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B119" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -9310,18 +8925,15 @@
         <v>152399</v>
       </c>
       <c r="N119" t="s">
-        <v>94</v>
-      </c>
-      <c r="R119" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B120" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C120">
         <v>4</v>
@@ -9357,18 +8969,15 @@
         <v>99322</v>
       </c>
       <c r="N120" t="s">
-        <v>398</v>
-      </c>
-      <c r="R120" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B121" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9404,18 +9013,15 @@
         <v>134360</v>
       </c>
       <c r="N121" t="s">
-        <v>92</v>
-      </c>
-      <c r="R121" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B122" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -9451,18 +9057,15 @@
         <v>89134</v>
       </c>
       <c r="N122" t="s">
-        <v>436</v>
-      </c>
-      <c r="R122" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B123" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9498,18 +9101,15 @@
         <v>144867</v>
       </c>
       <c r="N123" t="s">
-        <v>138</v>
-      </c>
-      <c r="R123" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B124" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C124">
         <v>24</v>
@@ -9545,18 +9145,15 @@
         <v>166105</v>
       </c>
       <c r="N124" t="s">
-        <v>364</v>
-      </c>
-      <c r="R124" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B125" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -9592,18 +9189,15 @@
         <v>124508</v>
       </c>
       <c r="N125" t="s">
-        <v>108</v>
-      </c>
-      <c r="R125" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B126" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -9639,18 +9233,15 @@
         <v>101707</v>
       </c>
       <c r="N126" t="s">
-        <v>368</v>
-      </c>
-      <c r="R126" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B127" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -9686,18 +9277,15 @@
         <v>108257</v>
       </c>
       <c r="N127" t="s">
-        <v>222</v>
-      </c>
-      <c r="R127" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B128" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9733,18 +9321,15 @@
         <v>79277</v>
       </c>
       <c r="N128" t="s">
-        <v>470</v>
-      </c>
-      <c r="R128" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -9780,18 +9365,15 @@
         <v>129792</v>
       </c>
       <c r="N129" t="s">
-        <v>134</v>
-      </c>
-      <c r="R129" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B130" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -9827,18 +9409,15 @@
         <v>113423</v>
       </c>
       <c r="N130" t="s">
-        <v>558</v>
-      </c>
-      <c r="R130" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B131" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C131">
         <v>4</v>
@@ -9874,18 +9453,15 @@
         <v>253825</v>
       </c>
       <c r="N131" t="s">
-        <v>670</v>
-      </c>
-      <c r="R131" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B132" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -9921,18 +9497,15 @@
         <v>124933</v>
       </c>
       <c r="N132" t="s">
-        <v>462</v>
-      </c>
-      <c r="R132" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>659</v>
-      </c>
       <c r="B133" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -9968,18 +9541,15 @@
         <v>137968</v>
       </c>
       <c r="N133" t="s">
-        <v>660</v>
-      </c>
-      <c r="R133" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B134" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -10015,18 +9585,15 @@
         <v>101135</v>
       </c>
       <c r="N134" t="s">
-        <v>556</v>
-      </c>
-      <c r="R134" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B135" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C135">
         <v>23</v>
@@ -10062,18 +9629,15 @@
         <v>127460</v>
       </c>
       <c r="N135" t="s">
-        <v>684</v>
-      </c>
-      <c r="R135" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B136" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -10109,18 +9673,15 @@
         <v>122134</v>
       </c>
       <c r="N136" t="s">
-        <v>452</v>
-      </c>
-      <c r="R136" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B137" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C137">
         <v>46</v>
@@ -10156,18 +9717,15 @@
         <v>177440</v>
       </c>
       <c r="N137" t="s">
-        <v>714</v>
-      </c>
-      <c r="R137" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B138" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10203,18 +9761,15 @@
         <v>69137</v>
       </c>
       <c r="N138" t="s">
-        <v>554</v>
-      </c>
-      <c r="R138" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B139" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -10250,18 +9805,15 @@
         <v>83093</v>
       </c>
       <c r="N139" t="s">
-        <v>662</v>
-      </c>
-      <c r="R139" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B140" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C140">
         <v>6</v>
@@ -10297,18 +9849,15 @@
         <v>187645</v>
       </c>
       <c r="N140" t="s">
-        <v>466</v>
-      </c>
-      <c r="R140" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B141" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C141">
         <v>54</v>
@@ -10344,18 +9893,15 @@
         <v>226804</v>
       </c>
       <c r="N141" t="s">
-        <v>696</v>
-      </c>
-      <c r="R141" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B142" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -10391,18 +9937,15 @@
         <v>176281</v>
       </c>
       <c r="N142" t="s">
-        <v>448</v>
-      </c>
-      <c r="R142" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B143" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C143">
         <v>17</v>
@@ -10438,18 +9981,15 @@
         <v>189743</v>
       </c>
       <c r="N143" t="s">
-        <v>674</v>
-      </c>
-      <c r="R143" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B144" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -10485,18 +10025,15 @@
         <v>121088</v>
       </c>
       <c r="N144" t="s">
-        <v>420</v>
-      </c>
-      <c r="R144" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B145" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -10532,18 +10069,15 @@
         <v>94677</v>
       </c>
       <c r="N145" t="s">
-        <v>304</v>
-      </c>
-      <c r="R145" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B146" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10579,18 +10113,15 @@
         <v>128331</v>
       </c>
       <c r="N146" t="s">
-        <v>378</v>
-      </c>
-      <c r="R146" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B147" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -10626,18 +10157,15 @@
         <v>137174</v>
       </c>
       <c r="N147" t="s">
-        <v>160</v>
-      </c>
-      <c r="R147" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B148" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -10673,18 +10201,15 @@
         <v>152876</v>
       </c>
       <c r="N148" t="s">
-        <v>174</v>
-      </c>
-      <c r="R148" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B149" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -10720,18 +10245,15 @@
         <v>166453</v>
       </c>
       <c r="N149" t="s">
-        <v>140</v>
-      </c>
-      <c r="R149" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B150" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -10767,18 +10289,15 @@
         <v>75253</v>
       </c>
       <c r="N150" t="s">
-        <v>716</v>
-      </c>
-      <c r="R150" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B151" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -10814,18 +10333,15 @@
         <v>104875</v>
       </c>
       <c r="N151" t="s">
-        <v>164</v>
-      </c>
-      <c r="R151" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B152" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -10861,18 +10377,15 @@
         <v>142223</v>
       </c>
       <c r="N152" t="s">
-        <v>730</v>
-      </c>
-      <c r="R152" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B153" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -10908,18 +10421,15 @@
         <v>268600</v>
       </c>
       <c r="N153" t="s">
-        <v>114</v>
-      </c>
-      <c r="R153" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B154" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -10955,18 +10465,15 @@
         <v>82890</v>
       </c>
       <c r="N154" t="s">
-        <v>724</v>
-      </c>
-      <c r="R154" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B155" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C155">
         <v>3</v>
@@ -11002,18 +10509,15 @@
         <v>120982</v>
       </c>
       <c r="N155" t="s">
-        <v>218</v>
-      </c>
-      <c r="R155" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B156" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -11049,18 +10553,15 @@
         <v>91325</v>
       </c>
       <c r="N156" t="s">
-        <v>720</v>
-      </c>
-      <c r="R156" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B157" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -11096,18 +10597,15 @@
         <v>213960</v>
       </c>
       <c r="N157" t="s">
-        <v>112</v>
-      </c>
-      <c r="R157" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B158" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C158">
         <v>2</v>
@@ -11143,18 +10641,15 @@
         <v>94811</v>
       </c>
       <c r="N158" t="s">
-        <v>208</v>
-      </c>
-      <c r="R158" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B159" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -11190,18 +10685,15 @@
         <v>195220</v>
       </c>
       <c r="N159" t="s">
-        <v>98</v>
-      </c>
-      <c r="R159" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B160" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11237,15 +10729,15 @@
         <v>133371</v>
       </c>
       <c r="N160" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B161" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -11281,15 +10773,15 @@
         <v>165995</v>
       </c>
       <c r="N161" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B162" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C162">
         <v>13</v>
@@ -11325,15 +10817,15 @@
         <v>108640</v>
       </c>
       <c r="N162" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B163" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C163">
         <v>16</v>
@@ -11369,15 +10861,15 @@
         <v>169991</v>
       </c>
       <c r="N163" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B164" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -11413,15 +10905,15 @@
         <v>9882</v>
       </c>
       <c r="N164" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B165" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -11457,15 +10949,15 @@
         <v>143495</v>
       </c>
       <c r="N165" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B166" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -11501,15 +10993,15 @@
         <v>118423</v>
       </c>
       <c r="N166" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B167" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C167">
         <v>113</v>
@@ -11545,15 +11037,15 @@
         <v>131722</v>
       </c>
       <c r="N167" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B168" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C168">
         <v>3</v>
@@ -11589,15 +11081,15 @@
         <v>103700</v>
       </c>
       <c r="N168" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B169" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C169">
         <v>260</v>
@@ -11633,15 +11125,15 @@
         <v>164317</v>
       </c>
       <c r="N169" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B170" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C170">
         <v>51</v>
@@ -11677,15 +11169,15 @@
         <v>128245</v>
       </c>
       <c r="N170" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B171" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C171">
         <v>409</v>
@@ -11721,15 +11213,15 @@
         <v>235284</v>
       </c>
       <c r="N171" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B172" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C172">
         <v>180</v>
@@ -11765,15 +11257,15 @@
         <v>157080</v>
       </c>
       <c r="N172" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B173" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C173">
         <v>5</v>
@@ -11809,15 +11301,15 @@
         <v>186511</v>
       </c>
       <c r="N173" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B174" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -11853,15 +11345,15 @@
         <v>137991</v>
       </c>
       <c r="N174" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B175" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C175">
         <v>263</v>
@@ -11897,15 +11389,15 @@
         <v>243852</v>
       </c>
       <c r="N175" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B176" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C176">
         <v>121</v>
@@ -11941,15 +11433,15 @@
         <v>125890</v>
       </c>
       <c r="N176" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B177" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C177">
         <v>2</v>
@@ -11985,15 +11477,15 @@
         <v>202414</v>
       </c>
       <c r="N177" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B178" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -12029,15 +11521,15 @@
         <v>155995</v>
       </c>
       <c r="N178" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B179" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C179">
         <v>5</v>
@@ -12073,15 +11565,15 @@
         <v>103589</v>
       </c>
       <c r="N179" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B180" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -12117,15 +11609,15 @@
         <v>178237</v>
       </c>
       <c r="N180" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B181" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C181">
         <v>23</v>
@@ -12161,15 +11653,15 @@
         <v>185916</v>
       </c>
       <c r="N181" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B182" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -12205,15 +11697,15 @@
         <v>118211</v>
       </c>
       <c r="N182" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B183" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C183">
         <v>16</v>
@@ -12249,15 +11741,15 @@
         <v>131428</v>
       </c>
       <c r="N183" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B184" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C184">
         <v>2</v>
@@ -12293,15 +11785,15 @@
         <v>141542</v>
       </c>
       <c r="N184" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B185" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C185">
         <v>43</v>
@@ -12337,15 +11829,15 @@
         <v>179469</v>
       </c>
       <c r="N185" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B186" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -12381,15 +11873,15 @@
         <v>88237</v>
       </c>
       <c r="N186" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B187" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C187">
         <v>22</v>
@@ -12425,15 +11917,15 @@
         <v>172437</v>
       </c>
       <c r="N187" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B188" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -12469,15 +11961,15 @@
         <v>94929</v>
       </c>
       <c r="N188" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B189" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C189">
         <v>36</v>
@@ -12513,15 +12005,15 @@
         <v>105894</v>
       </c>
       <c r="N189" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B190" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -12557,15 +12049,15 @@
         <v>146204</v>
       </c>
       <c r="N190" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B191" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C191">
         <v>13</v>
@@ -12601,15 +12093,15 @@
         <v>201003</v>
       </c>
       <c r="N191" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B192" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -12645,15 +12137,15 @@
         <v>171757</v>
       </c>
       <c r="N192" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B193" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C193">
         <v>29</v>
@@ -12689,15 +12181,15 @@
         <v>133445</v>
       </c>
       <c r="N193" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B194" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -12733,15 +12225,15 @@
         <v>164355</v>
       </c>
       <c r="N194" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B195" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -12777,15 +12269,15 @@
         <v>112760</v>
       </c>
       <c r="N195" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B196" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -12821,15 +12313,15 @@
         <v>84974</v>
       </c>
       <c r="N196" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B197" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -12865,15 +12357,15 @@
         <v>113505</v>
       </c>
       <c r="N197" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B198" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -12909,15 +12401,15 @@
         <v>104985</v>
       </c>
       <c r="N198" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B199" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C199">
         <v>10</v>
@@ -12953,15 +12445,15 @@
         <v>190989</v>
       </c>
       <c r="N199" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B200" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -12997,15 +12489,15 @@
         <v>83842</v>
       </c>
       <c r="N200" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B201" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -13041,15 +12533,15 @@
         <v>200696</v>
       </c>
       <c r="N201" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B202" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -13085,15 +12577,15 @@
         <v>62772</v>
       </c>
       <c r="N202" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B203" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -13129,15 +12621,15 @@
         <v>161294</v>
       </c>
       <c r="N203" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B204" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -13173,15 +12665,15 @@
         <v>11698</v>
       </c>
       <c r="N204" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B205" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -13217,15 +12709,15 @@
         <v>7809</v>
       </c>
       <c r="N205" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B206" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13261,15 +12753,15 @@
         <v>76376</v>
       </c>
       <c r="N206" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B207" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13305,15 +12797,15 @@
         <v>132174</v>
       </c>
       <c r="N207" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B208" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -13349,15 +12841,15 @@
         <v>81971</v>
       </c>
       <c r="N208" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B209" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C209">
         <v>3</v>
@@ -13393,15 +12885,15 @@
         <v>119487</v>
       </c>
       <c r="N209" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B210" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -13437,15 +12929,15 @@
         <v>156467</v>
       </c>
       <c r="N210" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B211" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -13481,15 +12973,15 @@
         <v>146422</v>
       </c>
       <c r="N211" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B212" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -13525,15 +13017,15 @@
         <v>155408</v>
       </c>
       <c r="N212" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B213" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C213">
         <v>2</v>
@@ -13569,15 +13061,15 @@
         <v>94056</v>
       </c>
       <c r="N213" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B214" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C214">
         <v>24</v>
@@ -13613,15 +13105,15 @@
         <v>92312</v>
       </c>
       <c r="N214" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B215" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -13657,15 +13149,15 @@
         <v>148638</v>
       </c>
       <c r="N215" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B216" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -13701,15 +13193,15 @@
         <v>98893</v>
       </c>
       <c r="N216" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B217" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -13745,15 +13237,15 @@
         <v>271141</v>
       </c>
       <c r="N217" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B218" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -13789,15 +13281,15 @@
         <v>106654</v>
       </c>
       <c r="N218" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B219" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -13833,15 +13325,15 @@
         <v>120913</v>
       </c>
       <c r="N219" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B220" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -13877,15 +13369,15 @@
         <v>15808</v>
       </c>
       <c r="N220" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B221" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -13921,15 +13413,15 @@
         <v>77423</v>
       </c>
       <c r="N221" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B222" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -13965,15 +13457,15 @@
         <v>126641</v>
       </c>
       <c r="N222" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B223" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14009,15 +13501,15 @@
         <v>191995</v>
       </c>
       <c r="N223" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B224" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C224">
         <v>29</v>
@@ -14053,15 +13545,15 @@
         <v>94825</v>
       </c>
       <c r="N224" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B225" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14097,15 +13589,15 @@
         <v>125282</v>
       </c>
       <c r="N225" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B226" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C226">
         <v>2</v>
@@ -14141,15 +13633,15 @@
         <v>120374</v>
       </c>
       <c r="N226" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B227" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14185,15 +13677,15 @@
         <v>71269</v>
       </c>
       <c r="N227" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B228" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C228">
         <v>946</v>
@@ -14229,15 +13721,15 @@
         <v>120130</v>
       </c>
       <c r="N228" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B229" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C229">
         <v>933</v>
@@ -14273,15 +13765,15 @@
         <v>127777</v>
       </c>
       <c r="N229" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B230" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C230">
         <v>1676</v>
@@ -14317,15 +13809,15 @@
         <v>134769</v>
       </c>
       <c r="N230" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B231" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -14361,15 +13853,15 @@
         <v>91989</v>
       </c>
       <c r="N231" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B232" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14405,15 +13897,15 @@
         <v>61725</v>
       </c>
       <c r="N232" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B233" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C233">
         <v>31</v>
@@ -14449,15 +13941,15 @@
         <v>88160</v>
       </c>
       <c r="N233" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B234" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -14493,15 +13985,15 @@
         <v>138835</v>
       </c>
       <c r="N234" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B235" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -14537,15 +14029,15 @@
         <v>139815</v>
       </c>
       <c r="N235" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B236" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -14581,15 +14073,15 @@
         <v>131383</v>
       </c>
       <c r="N236" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B237" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C237">
         <v>8</v>
@@ -14625,15 +14117,15 @@
         <v>139813</v>
       </c>
       <c r="N237" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B238" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -14669,15 +14161,15 @@
         <v>243918</v>
       </c>
       <c r="N238" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B239" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -14713,15 +14205,15 @@
         <v>157786</v>
       </c>
       <c r="N239" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B240" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C240">
         <v>5</v>
@@ -14757,15 +14249,15 @@
         <v>179617</v>
       </c>
       <c r="N240" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B241" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C241">
         <v>5</v>
@@ -14801,15 +14293,15 @@
         <v>216345</v>
       </c>
       <c r="N241" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B242" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C242">
         <v>12</v>
@@ -14845,15 +14337,15 @@
         <v>191234</v>
       </c>
       <c r="N242" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B243" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -14889,15 +14381,15 @@
         <v>182107</v>
       </c>
       <c r="N243" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B244" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -14933,15 +14425,15 @@
         <v>233642</v>
       </c>
       <c r="N244" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B245" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -14977,15 +14469,15 @@
         <v>80812</v>
       </c>
       <c r="N245" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B246" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C246">
         <v>113</v>
@@ -15021,15 +14513,15 @@
         <v>105967</v>
       </c>
       <c r="N246" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B247" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C247">
         <v>2</v>
@@ -15065,15 +14557,15 @@
         <v>168937</v>
       </c>
       <c r="N247" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B248" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C248">
         <v>34</v>
@@ -15109,15 +14601,15 @@
         <v>183533</v>
       </c>
       <c r="N248" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B249" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -15153,15 +14645,15 @@
         <v>136999</v>
       </c>
       <c r="N249" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B250" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -15197,15 +14689,15 @@
         <v>105349</v>
       </c>
       <c r="N250" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B251" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -15241,15 +14733,15 @@
         <v>166633</v>
       </c>
       <c r="N251" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B252" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -15285,15 +14777,15 @@
         <v>237484</v>
       </c>
       <c r="N252" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B253" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C253">
         <v>19</v>
@@ -15329,15 +14821,15 @@
         <v>193010</v>
       </c>
       <c r="N253" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B254" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C254">
         <v>6</v>
@@ -15373,15 +14865,15 @@
         <v>226426</v>
       </c>
       <c r="N254" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B255" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -15417,15 +14909,15 @@
         <v>143711</v>
       </c>
       <c r="N255" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B256" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C256">
         <v>3</v>
@@ -15461,15 +14953,15 @@
         <v>253198</v>
       </c>
       <c r="N256" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B257" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C257">
         <v>9</v>
@@ -15505,15 +14997,15 @@
         <v>204403</v>
       </c>
       <c r="N257" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B258" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -15549,15 +15041,15 @@
         <v>168909</v>
       </c>
       <c r="N258" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B259" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C259">
         <v>10</v>
@@ -15593,15 +15085,15 @@
         <v>147525</v>
       </c>
       <c r="N259" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B260" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C260">
         <v>118</v>
@@ -15637,15 +15129,15 @@
         <v>267862</v>
       </c>
       <c r="N260" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B261" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -15681,15 +15173,15 @@
         <v>77173</v>
       </c>
       <c r="N261" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B262" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -15725,15 +15217,15 @@
         <v>103090</v>
       </c>
       <c r="N262" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B263" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -15769,15 +15261,15 @@
         <v>162667</v>
       </c>
       <c r="N263" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B264" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C264">
         <v>2</v>
@@ -15813,15 +15305,15 @@
         <v>184248</v>
       </c>
       <c r="N264" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B265" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -15857,15 +15349,15 @@
         <v>133305</v>
       </c>
       <c r="N265" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B266" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C266">
         <v>3</v>
@@ -15901,15 +15393,15 @@
         <v>237022</v>
       </c>
       <c r="N266" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B267" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C267">
         <v>5</v>
@@ -15945,15 +15437,15 @@
         <v>121765</v>
       </c>
       <c r="N267" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B268" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -15989,15 +15481,15 @@
         <v>201203</v>
       </c>
       <c r="N268" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B269" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -16033,15 +15525,15 @@
         <v>188398</v>
       </c>
       <c r="N269" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B270" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C270">
         <v>7</v>
@@ -16077,15 +15569,15 @@
         <v>240681</v>
       </c>
       <c r="N270" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B271" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -16121,15 +15613,15 @@
         <v>203526</v>
       </c>
       <c r="N271" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B272" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -16165,15 +15657,15 @@
         <v>243734</v>
       </c>
       <c r="N272" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B273" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -16209,15 +15701,15 @@
         <v>151796</v>
       </c>
       <c r="N273" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B274" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -16253,15 +15745,15 @@
         <v>189267</v>
       </c>
       <c r="N274" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B275" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -16297,15 +15789,15 @@
         <v>160256</v>
       </c>
       <c r="N275" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B276" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C276">
         <v>31</v>
@@ -16341,15 +15833,15 @@
         <v>117754</v>
       </c>
       <c r="N276" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B277" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -16385,15 +15877,15 @@
         <v>183685</v>
       </c>
       <c r="N277" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B278" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -16429,15 +15921,15 @@
         <v>276648</v>
       </c>
       <c r="N278" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B279" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -16473,15 +15965,15 @@
         <v>237200</v>
       </c>
       <c r="N279" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B280" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -16517,15 +16009,15 @@
         <v>227539</v>
       </c>
       <c r="N280" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B281" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -16561,15 +16053,15 @@
         <v>149126</v>
       </c>
       <c r="N281" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B282" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -16605,15 +16097,15 @@
         <v>240791</v>
       </c>
       <c r="N282" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B283" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -16649,15 +16141,15 @@
         <v>257119</v>
       </c>
       <c r="N283" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B284" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -16693,15 +16185,15 @@
         <v>262297</v>
       </c>
       <c r="N284" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B285" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -16737,15 +16229,15 @@
         <v>145469</v>
       </c>
       <c r="N285" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B286" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C286">
         <v>18</v>
@@ -16781,15 +16273,15 @@
         <v>209610</v>
       </c>
       <c r="N286" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B287" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C287">
         <v>7</v>
@@ -16825,15 +16317,15 @@
         <v>119971</v>
       </c>
       <c r="N287" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B288" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C288">
         <v>4</v>
@@ -16869,15 +16361,15 @@
         <v>186280</v>
       </c>
       <c r="N288" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B289" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -16913,15 +16405,15 @@
         <v>105185</v>
       </c>
       <c r="N289" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B290" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C290">
         <v>28</v>
@@ -16957,15 +16449,15 @@
         <v>196748</v>
       </c>
       <c r="N290" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B291" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C291">
         <v>9</v>
@@ -17001,15 +16493,15 @@
         <v>147596</v>
       </c>
       <c r="N291" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B292" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -17045,15 +16537,15 @@
         <v>258317</v>
       </c>
       <c r="N292" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B293" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -17089,15 +16581,15 @@
         <v>166544</v>
       </c>
       <c r="N293" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B294" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C294">
         <v>2</v>
@@ -17133,15 +16625,15 @@
         <v>214547</v>
       </c>
       <c r="N294" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B295" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -17177,15 +16669,15 @@
         <v>118905</v>
       </c>
       <c r="N295" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B296" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -17221,15 +16713,15 @@
         <v>178369</v>
       </c>
       <c r="N296" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B297" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -17265,15 +16757,15 @@
         <v>148438</v>
       </c>
       <c r="N297" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B298" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -17309,15 +16801,15 @@
         <v>186401</v>
       </c>
       <c r="N298" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B299" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -17353,15 +16845,15 @@
         <v>218525</v>
       </c>
       <c r="N299" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B300" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -17397,15 +16889,15 @@
         <v>222203</v>
       </c>
       <c r="N300" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B301" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -17441,15 +16933,15 @@
         <v>156812</v>
       </c>
       <c r="N301" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B302" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -17485,15 +16977,15 @@
         <v>222232</v>
       </c>
       <c r="N302" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B303" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -17529,15 +17021,15 @@
         <v>200412</v>
       </c>
       <c r="N303" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B304" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -17573,15 +17065,15 @@
         <v>193312</v>
       </c>
       <c r="N304" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B305" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -17617,15 +17109,15 @@
         <v>205118</v>
       </c>
       <c r="N305" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B306" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -17661,15 +17153,15 @@
         <v>155827</v>
       </c>
       <c r="N306" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B307" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -17705,15 +17197,15 @@
         <v>221945</v>
       </c>
       <c r="N307" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B308" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C308">
         <v>2</v>
@@ -17749,15 +17241,15 @@
         <v>222793</v>
       </c>
       <c r="N308" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B309" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -17793,15 +17285,15 @@
         <v>179194</v>
       </c>
       <c r="N309" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B310" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -17837,15 +17329,15 @@
         <v>115331</v>
       </c>
       <c r="N310" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B311" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -17881,15 +17373,15 @@
         <v>249880</v>
       </c>
       <c r="N311" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B312" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C312">
         <v>3</v>
@@ -17925,15 +17417,15 @@
         <v>211322</v>
       </c>
       <c r="N312" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B313" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -17969,15 +17461,15 @@
         <v>142242</v>
       </c>
       <c r="N313" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B314" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -18013,15 +17505,15 @@
         <v>170702</v>
       </c>
       <c r="N314" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B315" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -18057,15 +17549,15 @@
         <v>228846</v>
       </c>
       <c r="N315" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B316" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -18101,15 +17593,15 @@
         <v>191612</v>
       </c>
       <c r="N316" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B317" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C317">
         <v>7</v>
@@ -18145,15 +17637,15 @@
         <v>165640</v>
       </c>
       <c r="N317" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B318" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -18189,15 +17681,15 @@
         <v>270764</v>
       </c>
       <c r="N318" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B319" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -18233,15 +17725,15 @@
         <v>154324</v>
       </c>
       <c r="N319" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B320" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C320">
         <v>23</v>
@@ -18277,15 +17769,15 @@
         <v>187915</v>
       </c>
       <c r="N320" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B321" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C321">
         <v>1</v>
@@ -18321,15 +17813,15 @@
         <v>100278</v>
       </c>
       <c r="N321" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B322" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C322">
         <v>17</v>
@@ -18365,15 +17857,15 @@
         <v>157869</v>
       </c>
       <c r="N322" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B323" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -18409,15 +17901,15 @@
         <v>203980</v>
       </c>
       <c r="N323" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B324" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C324">
         <v>1122</v>
@@ -18453,15 +17945,15 @@
         <v>215492</v>
       </c>
       <c r="N324" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B325" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -18497,15 +17989,15 @@
         <v>186410</v>
       </c>
       <c r="N325" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B326" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C326">
         <v>29</v>
@@ -18541,15 +18033,15 @@
         <v>194437</v>
       </c>
       <c r="N326" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B327" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C327">
         <v>2</v>
@@ -18585,15 +18077,15 @@
         <v>210512</v>
       </c>
       <c r="N327" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B328" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C328">
         <v>1</v>
@@ -18629,15 +18121,15 @@
         <v>142530</v>
       </c>
       <c r="N328" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B329" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -18673,15 +18165,15 @@
         <v>135329</v>
       </c>
       <c r="N329" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B330" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -18717,15 +18209,15 @@
         <v>8079</v>
       </c>
       <c r="N330" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B331" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -18761,15 +18253,15 @@
         <v>219309</v>
       </c>
       <c r="N331" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B332" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -18805,15 +18297,15 @@
         <v>259628</v>
       </c>
       <c r="N332" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B333" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -18849,15 +18341,15 @@
         <v>247971</v>
       </c>
       <c r="N333" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B334" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -18893,15 +18385,15 @@
         <v>174620</v>
       </c>
       <c r="N334" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B335" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -18937,15 +18429,15 @@
         <v>211669</v>
       </c>
       <c r="N335" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B336" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -18981,15 +18473,15 @@
         <v>172449</v>
       </c>
       <c r="N336" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B337" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -19025,15 +18517,15 @@
         <v>189505</v>
       </c>
       <c r="N337" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B338" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -19069,15 +18561,15 @@
         <v>138524</v>
       </c>
       <c r="N338" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B339" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -19113,15 +18605,15 @@
         <v>204288</v>
       </c>
       <c r="N339" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B340" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C340">
         <v>2</v>
@@ -19157,15 +18649,15 @@
         <v>147522</v>
       </c>
       <c r="N340" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B341" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -19201,15 +18693,15 @@
         <v>211049</v>
       </c>
       <c r="N341" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B342" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C342">
         <v>39</v>
@@ -19245,15 +18737,15 @@
         <v>212980</v>
       </c>
       <c r="N342" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B343" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -19289,15 +18781,15 @@
         <v>224199</v>
       </c>
       <c r="N343" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B344" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C344">
         <v>2</v>
@@ -19333,15 +18825,15 @@
         <v>251223</v>
       </c>
       <c r="N344" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B345" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -19377,15 +18869,15 @@
         <v>17447</v>
       </c>
       <c r="N345" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B346" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C346">
         <v>15</v>
@@ -19421,15 +18913,15 @@
         <v>183284</v>
       </c>
       <c r="N346" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B347" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -19465,15 +18957,15 @@
         <v>221955</v>
       </c>
       <c r="N347" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B348" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -19509,15 +19001,15 @@
         <v>172463</v>
       </c>
       <c r="N348" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B349" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -19553,15 +19045,15 @@
         <v>157950</v>
       </c>
       <c r="N349" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B350" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C350">
         <v>2</v>
@@ -19597,15 +19089,15 @@
         <v>268991</v>
       </c>
       <c r="N350" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B351" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C351">
         <v>15</v>
@@ -19641,15 +19133,15 @@
         <v>208861</v>
       </c>
       <c r="N351" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B352" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -19685,15 +19177,15 @@
         <v>191458</v>
       </c>
       <c r="N352" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B353" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -19729,15 +19221,15 @@
         <v>92565</v>
       </c>
       <c r="N353" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B354" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C354">
         <v>1</v>
@@ -19773,15 +19265,15 @@
         <v>184575</v>
       </c>
       <c r="N354" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B355" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C355">
         <v>1</v>
@@ -19817,15 +19309,15 @@
         <v>167801</v>
       </c>
       <c r="N355" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B356" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C356">
         <v>5</v>
@@ -19861,15 +19353,15 @@
         <v>259637</v>
       </c>
       <c r="N356" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B357" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C357">
         <v>1</v>
@@ -19905,15 +19397,15 @@
         <v>90568</v>
       </c>
       <c r="N357" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B358" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -19949,15 +19441,15 @@
         <v>7180</v>
       </c>
       <c r="N358" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B359" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C359">
         <v>1</v>
@@ -19993,15 +19485,15 @@
         <v>137447</v>
       </c>
       <c r="N359" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B360" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -20037,15 +19529,15 @@
         <v>139028</v>
       </c>
       <c r="N360" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B361" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -20081,15 +19573,15 @@
         <v>124761</v>
       </c>
       <c r="N361" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B362" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -20125,15 +19617,15 @@
         <v>127311</v>
       </c>
       <c r="N362" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B363" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -20169,15 +19661,15 @@
         <v>143979</v>
       </c>
       <c r="N363" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B364" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -20213,18 +19705,15 @@
         <v>212782</v>
       </c>
       <c r="N364" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N364">
     <sortCondition ref="B1:B364"/>
   </sortState>
-  <conditionalFormatting sqref="R1:R159">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576 R1:R1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
